--- a/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,55</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,44%</t>
+          <t>63,01%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 18,5</t>
+          <t>5,11; 24,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 10,44</t>
+          <t>-0,41; 16,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 16,53</t>
+          <t>6,08; 24,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 15,2</t>
+          <t>0,96; 17,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,61; 52,5</t>
+          <t>12,12; 83,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 58,36</t>
+          <t>-1,85; 107,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 116,87</t>
+          <t>27,65; 201,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 137,2</t>
+          <t>2,01; 176,27</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>20,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,53</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,05%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>27,92%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 23,7</t>
+          <t>7,55; 31,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 14,72</t>
+          <t>-3,68; 17,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 13,11</t>
+          <t>-6,31; 14,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 17,77</t>
+          <t>-4,98; 14,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 81,83</t>
+          <t>23,76; 133,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 94,73</t>
+          <t>-13,72; 103,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 122,95</t>
+          <t>-30,06; 131,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,26; 198,85</t>
+          <t>-26,08; 128,44</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,36</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>65,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>-21,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>104,78%</t>
+          <t>68,95%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 28,88</t>
+          <t>-7,65; 43,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 22,94</t>
+          <t>-50,41; 19,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 21,88</t>
+          <t>-16,48; 29,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 24,19</t>
+          <t>-9,77; 28,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 148,99</t>
+          <t>-18,22; 412,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 208,59</t>
+          <t>-80,44; 117,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 220,49</t>
+          <t>-48,76; 313,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 431,6</t>
+          <t>-41,99; 565,82</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>17,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>48,64%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 18,32</t>
+          <t>10,17; 24,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,29</t>
+          <t>-2,83; 12,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 13,44</t>
+          <t>3,05; 16,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 14,45</t>
+          <t>0,95; 12,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 56,22</t>
+          <t>26,75; 84,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 54,74</t>
+          <t>-12,41; 63,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 98,11</t>
+          <t>13,15; 118,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,2; 135,75</t>
+          <t>4,74; 106,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P28B_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,06</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>38,6%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>39,28%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>88,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>63,01%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.48409891280641</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.652096335467322</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.697402054893</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.75258453493533</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3860003588188</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.4164130792847837</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8114380556113477</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5100481885131981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 24,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 16,93</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,08; 24,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 17,61</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>12,12; 83,11</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 107,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>27,65; 201,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 176,27</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.106370774879473</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1866540139138494</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.445303837496547</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.6425916888302625</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1211701948831431</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.008378592469104296</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2283780410359152</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.05525905942563474</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.94688012224146</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.86868867613645</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.34252683529385</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>16.40133041310675</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.8311064355864005</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.147836918429589</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.875286085947238</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.568464745961081</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>20,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,4</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>66,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,76%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>29,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 31,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,68; 17,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 14,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 14,37</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>23,76; 133,01</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 103,49</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-30,06; 131,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; 128,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>20.93762932457115</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.614274561493088</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.500837680323786</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.835981350882822</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.6813199761155919</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.2912536079729605</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3533664682265421</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2409582473098204</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>17,04</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>65,04%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-21,31%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>32,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>68,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.069241926727074</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.663274352871126</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.382229482421027</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.652385556153147</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.2457632913600331</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1608738331437571</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.276828593526916</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2858740324923914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 43,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-50,41; 19,59</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,48; 29,68</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,77; 28,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,22; 412,53</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-80,44; 117,14</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-48,76; 313,01</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-41,99; 565,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>31.81260181624687</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.24411312874035</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.58629471463772</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.2128940091744</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.325591846762797</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.082757876894046</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.425340878666168</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.267881854641765</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,66</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,14</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>51,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>23,39%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>58,9%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>48,64%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.0420196312355</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.14554321724306</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>5.238226859226872</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.00363254111643</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.6504125837502555</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1575911812508574</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2278422079473745</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6591620583049115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>10,17; 24,76</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 12,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 16,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 12,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>26,75; 84,0</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-12,41; 63,13</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>13,15; 118,98</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 106,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.646021773919749</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-48.54281511943492</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-20.50256447843523</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.4738487283388</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1822002435678173</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8093735886137697</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.5297922930146515</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4414643939580467</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>43.29698842694587</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>23.27520016127632</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>27.1297943699697</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>28.80809311981038</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4.125290918339941</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.455078012730802</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.503545987908268</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.581200780704797</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>17.52218762065008</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.215628111928872</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.12783446518809</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.388456127846243</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.5228698049404675</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.264301736097431</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5778087814946102</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4121614666915338</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>8.893771358451492</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.123285751144322</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.743558014973747</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1065693037561268</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.258678718537308</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.07643466051540498</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1158650160941058</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01431319840798911</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>24.4027401908971</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.15412619947082</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>16.51160069909806</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.95554181844317</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.8289148199191277</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.678409681079653</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.187557768611223</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9720397760773528</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
